--- a/Abgabe2/Testdokumentation.xlsx
+++ b/Abgabe2/Testdokumentation.xlsx
@@ -5,15 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sap-my.sharepoint.com/personal/valentin_czekalla_sap_com/Documents/Documents/DHBW/4rdSemester/Software_Engineering/Quoridor4All/Abgabe2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\I569455\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="39" documentId="8_{51C7E4BD-939E-4CAB-9715-BEB4EFD8D2B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{636C9CDF-9825-49B3-8B79-D6FF794DB545}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A4B9794-B05B-49F2-9EC9-704D38622D11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{8791FC65-0DCC-497F-BD7F-81877CFDB875}"/>
+    <workbookView xWindow="-165" yWindow="-165" windowWidth="29130" windowHeight="17610" activeTab="2" xr2:uid="{8791FC65-0DCC-497F-BD7F-81877CFDB875}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Scope" sheetId="1" r:id="rId1"/>
+    <sheet name="Spiel starten" sheetId="2" r:id="rId2"/>
+    <sheet name="Spiel spielen" sheetId="3" r:id="rId3"/>
+    <sheet name="Sieger" sheetId="5" r:id="rId4"/>
+    <sheet name="Kompatibilität" sheetId="4" r:id="rId5"/>
+    <sheet name="CouchPotato" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,10 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="37">
-  <si>
-    <t>Testkategorie</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="102">
   <si>
     <t>Tester</t>
   </si>
@@ -50,33 +52,21 @@
     <t>Stichpunkt-Beschreibung Ergebnis</t>
   </si>
   <si>
-    <t>Start</t>
-  </si>
-  <si>
     <t>20.04.2024</t>
   </si>
   <si>
     <t>Valentin</t>
   </si>
   <si>
-    <t>Testbeschreibung als Stichpunkt</t>
-  </si>
-  <si>
     <t>Eingabe der Spielernamen durchweg richtig</t>
   </si>
   <si>
-    <t>in Eingabe frei, dann in Spiel und Ergebnis angezeigt</t>
-  </si>
-  <si>
     <t>Spielstart funktioniert</t>
   </si>
   <si>
     <t>ja</t>
   </si>
   <si>
-    <t>Spiel spielen, für jeden Spieler</t>
-  </si>
-  <si>
     <t>Anzeige der möglichen Züge überprüfen</t>
   </si>
   <si>
@@ -125,18 +115,12 @@
     <t>keinen ausgewählten Zug versuchen, abzubrechen</t>
   </si>
   <si>
-    <t>Sieger anzeigen</t>
-  </si>
-  <si>
     <t>richtiger Name angezeigt</t>
   </si>
   <si>
     <t xml:space="preserve"> Leaderboard überprüfen</t>
   </si>
   <si>
-    <t>Navigation zurück zu Start überprüfen</t>
-  </si>
-  <si>
     <t>Intuitivität</t>
   </si>
   <si>
@@ -147,6 +131,222 @@
   </si>
   <si>
     <t>Couch Potato Tour/Garbage Collector Tour: möglichst schnell alles durchklicken (immer geradeauslaufen, bis zum Sieg)</t>
+  </si>
+  <si>
+    <t>Schrittbeschreibung</t>
+  </si>
+  <si>
+    <t>Schritt Nr</t>
+  </si>
+  <si>
+    <t>Erwartete Ergebnisse</t>
+  </si>
+  <si>
+    <t>erfüllt oder Abweichende Beobachtung</t>
+  </si>
+  <si>
+    <t>Öffne Applikation</t>
+  </si>
+  <si>
+    <t>Anzeigen der Startseite mit 4 Spielernamen, die default Werte gesetzt haben</t>
+  </si>
+  <si>
+    <t>Ändern der Spielernamen</t>
+  </si>
+  <si>
+    <t>Testende Person</t>
+  </si>
+  <si>
+    <t>Klick auf Spielregeln</t>
+  </si>
+  <si>
+    <t>Anzeigen der Spielregeln</t>
+  </si>
+  <si>
+    <t>24.04.2024</t>
+  </si>
+  <si>
+    <t>Spielernamen werden verändert angezeigt, auch später im Spiel (und bei dem Sieger und Leaderboard, wenn weiter gespielt wird)</t>
+  </si>
+  <si>
+    <t>Klick auf weiter Infos</t>
+  </si>
+  <si>
+    <t>Anzeigen der Spielregeln auf Wikipedia im Browser</t>
+  </si>
+  <si>
+    <t>Klick auf weiter</t>
+  </si>
+  <si>
+    <t>Klick auf Start</t>
+  </si>
+  <si>
+    <t>Anzeigen des Spielbretts</t>
+  </si>
+  <si>
+    <t>Starte das Spiel wie in Spiel starten</t>
+  </si>
+  <si>
+    <t>Anzeigen des Spielbretts mit den richtigen Namen, 6 Wänden pro Spieler, keiner gesetzten Wand und allen Spielern in den Startpositionen</t>
+  </si>
+  <si>
+    <t>Klicke auf eine Vorausschau des aktuelen Spielers</t>
+  </si>
+  <si>
+    <t>Klicke auf Bestätigen</t>
+  </si>
+  <si>
+    <t>Klicke zwischen zwei Felder (nicht in der ganz rechten Reihe oder Reihe ganz unten)</t>
+  </si>
+  <si>
+    <t>Anzeige Wall Vorausschau</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Der Spieler bewegt sich an die geklickte Position </t>
+  </si>
+  <si>
+    <t>Nur diese Vorausschau wird angezeigt</t>
+  </si>
+  <si>
+    <t>Wall wird braun und ist dann fest</t>
+  </si>
+  <si>
+    <t>Anzeige Wall Vorausschau an neuer Position</t>
+  </si>
+  <si>
+    <t>Klicke auf Zug zurück</t>
+  </si>
+  <si>
+    <t>Wand wird nicht mehr gesetzt angezeigt</t>
+  </si>
+  <si>
+    <t>Klicke auf Spielregeln</t>
+  </si>
+  <si>
+    <t>Klicke auf Weiter</t>
+  </si>
+  <si>
+    <t>Das Spielbrett wird in der vorherigen Konstellation angezeigt</t>
+  </si>
+  <si>
+    <t>Der Spieler bewegt sich an die vorherige Position</t>
+  </si>
+  <si>
+    <t>Setze eine Wand neben einen Spieler</t>
+  </si>
+  <si>
+    <t>Beim nächsten Spielzug des Spielers, erscheint die Position hinter der Wand nicht mehr in der Vorausschau</t>
+  </si>
+  <si>
+    <t>Versuche eine Wand so zu setzen, dass sie mit einer anderen Wand kollidiert</t>
+  </si>
+  <si>
+    <t>Versuche einen Player durch das Setzen von Wänden von der anderen Seite abzugrenzen</t>
+  </si>
+  <si>
+    <t>Starte das Spiel wie in Spiel starten auf Windows</t>
+  </si>
+  <si>
+    <t>Starte das Spiel wie in Spiel starten auf Mac OS</t>
+  </si>
+  <si>
+    <t>Starte das Spiel wie in Spiel starten, gib einem Spieler dabei immer den gleichen Namen</t>
+  </si>
+  <si>
+    <t>Gehe mit dem Spieler mit dem gleichen Namen zur Ziellinie</t>
+  </si>
+  <si>
+    <t>Anzeige der Gewinner Seite mit dem Spieler als Gewinner der Runde</t>
+  </si>
+  <si>
+    <t>Wiederhole 2 mehrfach, bis der Spieler im Leaderboard angezeigt wird</t>
+  </si>
+  <si>
+    <t>Der Spieler wird im Leaderboard mit der Anzahl der Gewinne angezeigt. Die Anzahl der Gewinne entspricht der realen Anzahl an Gewinnen</t>
+  </si>
+  <si>
+    <t>Bewege alle 4 Spieler an 4 aneinandergrenzenden Felder</t>
+  </si>
+  <si>
+    <t>Stelle Zwei Spieler hintereinander</t>
+  </si>
+  <si>
+    <t>Es wird keine Vorausschau bei der letzten Wand angezeigt</t>
+  </si>
+  <si>
+    <t>Es wird keine Vorausschau angezeigt</t>
+  </si>
+  <si>
+    <t>Es wird weiterhin eine Vorausschau der möglichen Züge für den aktuellen Spieler geben</t>
+  </si>
+  <si>
+    <t>Wenn einer der Spieler an der Reihe ist, wird die Vorausschau als über den anderen Spieler springen angezeigt</t>
+  </si>
+  <si>
+    <t>Stelle Zwei Spieler hintereinander und dahinter eine Wand</t>
+  </si>
+  <si>
+    <t>dem Spieler wird das seitliche Springen angeboten, wenn hinter dem anderen Spieler eine Wand ist</t>
+  </si>
+  <si>
+    <t>Klick auf Spiel abbrechen</t>
+  </si>
+  <si>
+    <t>Es wird die Startseite mit den zuletzt vergebenen Namen angezeigt</t>
+  </si>
+  <si>
+    <t>Bestätigen klicken ohne einen Wall Zug oder Player Zug ausgewählt zu haben</t>
+  </si>
+  <si>
+    <t>Anzeigen der gleichen Situation, kein Zug hat statgefunden</t>
+  </si>
+  <si>
+    <t>Anzeigen der Startseite mit den zuletzt gewählten Spielernamen</t>
+  </si>
+  <si>
+    <t>möglichst schnell alles durchklicken (immer geradeauslaufen zum Sieg)</t>
+  </si>
+  <si>
+    <t>Spielbrett ist stets in konsistenten Zustand</t>
+  </si>
+  <si>
+    <t>Jared</t>
+  </si>
+  <si>
+    <t>Spielstart</t>
+  </si>
+  <si>
+    <t>Spiel spielen</t>
+  </si>
+  <si>
+    <t>Sieger</t>
+  </si>
+  <si>
+    <t>Testszenario</t>
+  </si>
+  <si>
+    <t>geteste Funktionalität</t>
+  </si>
+  <si>
+    <t>Klick auf Startseite</t>
+  </si>
+  <si>
+    <t>Valentin, Alexander (Valentins Bruder)</t>
+  </si>
+  <si>
+    <t>ja, aber enter wäre schöner</t>
+  </si>
+  <si>
+    <t>Valentin, Alexander</t>
+  </si>
+  <si>
+    <t>ja, auch zwei spieler wäre schön</t>
+  </si>
+  <si>
+    <t>ja, wäre schön, wenn ganze applikation immer voll rein passt</t>
+  </si>
+  <si>
+    <t>ja, wäre schön, wenn keine Vorschau kommt, wenn alle Wände gesetzt sind</t>
   </si>
 </sst>
 </file>
@@ -188,13 +388,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -208,16 +430,86 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1E05188F-CE61-4428-9F61-8641D2376FEA}" name="Table2" displayName="Table2" ref="A2:E25" totalsRowShown="0">
-  <autoFilter ref="A2:E25" xr:uid="{1E05188F-CE61-4428-9F61-8641D2376FEA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1E05188F-CE61-4428-9F61-8641D2376FEA}" name="Table2" displayName="Table2" ref="A2:E24" totalsRowShown="0">
+  <autoFilter ref="A2:E24" xr:uid="{1E05188F-CE61-4428-9F61-8641D2376FEA}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{7A9062EC-BAB3-45C4-A14D-3DAE2AD7AB38}" name="Testkategorie"/>
-    <tableColumn id="2" xr3:uid="{4A9D07B1-6545-4212-B9E4-79401C35C91E}" name="Testbeschreibung als Stichpunkt"/>
+    <tableColumn id="1" xr3:uid="{7A9062EC-BAB3-45C4-A14D-3DAE2AD7AB38}" name="Testszenario"/>
+    <tableColumn id="2" xr3:uid="{4A9D07B1-6545-4212-B9E4-79401C35C91E}" name="geteste Funktionalität" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{20069441-EEDB-4D26-AB3B-E2FC9B39F735}" name="Tester"/>
     <tableColumn id="4" xr3:uid="{285B7409-9812-409D-83A5-D6F410960BCC}" name="Datum"/>
     <tableColumn id="5" xr3:uid="{D1376AEB-7280-4E7B-A248-E1EBF2B872F6}" name="Stichpunkt-Beschreibung Ergebnis"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5ADBCAD9-8D50-491B-BD76-BCE70DECC569}" name="Table1" displayName="Table1" ref="A2:E8" totalsRowShown="0">
+  <autoFilter ref="A2:E8" xr:uid="{5ADBCAD9-8D50-491B-BD76-BCE70DECC569}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{7FDCAF1E-7026-40CA-947A-84F0706447F3}" name="Schritt Nr"/>
+    <tableColumn id="2" xr3:uid="{EAC39EBE-B046-406A-B260-416E5F8AA8E9}" name="Schrittbeschreibung"/>
+    <tableColumn id="3" xr3:uid="{E4263C0C-A14E-4497-85D5-9DF2E096FF72}" name="Erwartete Ergebnisse"/>
+    <tableColumn id="4" xr3:uid="{A423AB56-9338-4C27-B223-F94B33E6795F}" name="erfüllt oder Abweichende Beobachtung"/>
+    <tableColumn id="5" xr3:uid="{5A5F4977-8779-44E0-AD12-96A689F492DA}" name="Datum"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DF827062-6A4E-4D0F-AB5F-E7F0E087B4E1}" name="Table14" displayName="Table14" ref="A2:E21" totalsRowShown="0">
+  <autoFilter ref="A2:E21" xr:uid="{DF827062-6A4E-4D0F-AB5F-E7F0E087B4E1}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{87DAFAB1-999B-405B-9AAD-124420DE5EB3}" name="Schritt Nr"/>
+    <tableColumn id="2" xr3:uid="{658052DA-E457-41F0-A047-19DEE9986CAA}" name="Schrittbeschreibung" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{E1C70266-EAF8-4A4E-AFB5-405908C7B1EC}" name="Erwartete Ergebnisse"/>
+    <tableColumn id="4" xr3:uid="{9616A9A9-38C6-4F6B-AD6C-CE8715896C11}" name="erfüllt oder Abweichende Beobachtung"/>
+    <tableColumn id="5" xr3:uid="{5E094299-14B8-4624-A6C3-F62C7124A39C}" name="Datum"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{D9FF5000-AC1A-4460-BF26-D13603977848}" name="Table146" displayName="Table146" ref="A2:E6" totalsRowShown="0">
+  <autoFilter ref="A2:E6" xr:uid="{D9FF5000-AC1A-4460-BF26-D13603977848}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{02D18069-E55C-4570-A3EB-1D381E3C2DDB}" name="Schritt Nr"/>
+    <tableColumn id="2" xr3:uid="{B2D51C9E-6F98-4A81-BCDF-847BBC235286}" name="Schrittbeschreibung" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{32586D29-301B-4400-8080-D5CAF7CE01F0}" name="Erwartete Ergebnisse" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{CF3C022D-C0D6-4E89-B9C5-53A36064DAD7}" name="erfüllt oder Abweichende Beobachtung"/>
+    <tableColumn id="5" xr3:uid="{4DECF988-68DC-4172-A837-C3A435628B83}" name="Datum"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E9056F0B-4DC3-40BE-9F3B-3B084EB48100}" name="Table145" displayName="Table145" ref="A2:E4" totalsRowShown="0">
+  <autoFilter ref="A2:E4" xr:uid="{E9056F0B-4DC3-40BE-9F3B-3B084EB48100}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{70C83E48-A1E9-4047-8ACA-CB97ECE6068D}" name="Schritt Nr"/>
+    <tableColumn id="2" xr3:uid="{79E8643F-34F8-4584-96B4-E14633DD3B34}" name="Schrittbeschreibung" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{286FC5DC-3BBF-4676-93E7-EB921DDC3674}" name="Erwartete Ergebnisse"/>
+    <tableColumn id="4" xr3:uid="{3FB5E351-1EA2-417C-81FA-A3154A440308}" name="erfüllt oder Abweichende Beobachtung"/>
+    <tableColumn id="5" xr3:uid="{19332D03-E822-4364-A227-F85EF9B65BBD}" name="Datum"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{238DFCCF-D90D-4BEE-8515-48BE4E39085A}" name="Table1457" displayName="Table1457" ref="A2:E3" totalsRowShown="0">
+  <autoFilter ref="A2:E3" xr:uid="{238DFCCF-D90D-4BEE-8515-48BE4E39085A}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{00DCCC60-C66E-42BB-B1BA-9740454251A9}" name="Schritt Nr"/>
+    <tableColumn id="2" xr3:uid="{3230232E-6ACD-435B-9991-75304117E2D2}" name="Schrittbeschreibung" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{88E373E2-C53F-4AE2-B1FB-56F6F97B3B93}" name="Erwartete Ergebnisse"/>
+    <tableColumn id="4" xr3:uid="{256C37D5-D210-4BA7-9F8E-07E0FA0AAC15}" name="erfüllt oder Abweichende Beobachtung"/>
+    <tableColumn id="5" xr3:uid="{240BB9CF-77EB-4AAA-84FE-B0519FE668FF}" name="Datum"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -520,351 +812,1208 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21145BD2-5DE3-4848-82C5-B8BBCAD65BE0}">
   <dimension ref="A2:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
+        <v>90</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
+        <v>90</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>13</v>
+        <v>91</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
+        <v>91</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
+        <v>91</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" t="s">
-        <v>16</v>
+        <v>91</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>91</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>18</v>
+        <v>91</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" t="s">
-        <v>19</v>
+        <v>91</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D11" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>20</v>
+        <v>91</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>21</v>
+        <v>91</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>22</v>
+        <v>91</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
+        <v>91</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>92</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>6</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C18" t="s">
-        <v>6</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" t="s">
+      <c r="C23" t="s">
         <v>27</v>
       </c>
-      <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>28</v>
       </c>
-      <c r="C20" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B24" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B21" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4ED07800-FD7A-4F7E-8949-3D415CBCEF63}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="93.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="37.28515625" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B81167-D8BD-43D7-B45D-58DDA0D6962E}">
+  <dimension ref="A1:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="71.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D20" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{257927D0-4447-4CBE-9920-51993F5F2123}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="84.28515625" customWidth="1"/>
+    <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B840C0B8-08AC-4F3C-8B70-A52AC7CDAF84}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" customWidth="1"/>
+    <col min="3" max="3" width="127.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C52CEED-0017-4221-AE87-BED954CA53EC}">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.85546875" customWidth="1"/>
+    <col min="3" max="3" width="127.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
